--- a/Financials/Yearly/NETS_YR_FIN.xlsx
+++ b/Financials/Yearly/NETS_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10651923-8CC9-4A89-A8D7-DB9ECE5E6CA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NETS" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,33 +689,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -707,21 +742,21 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>468600</v>
+        <v>484300</v>
       </c>
       <c r="E8" s="3">
-        <v>431500</v>
+        <v>446000</v>
       </c>
       <c r="F8" s="3">
-        <v>373500</v>
+        <v>386000</v>
       </c>
       <c r="G8" s="3">
-        <v>279300</v>
+        <v>288600</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -734,21 +769,21 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>320400</v>
+        <v>331100</v>
       </c>
       <c r="E9" s="3">
-        <v>294900</v>
+        <v>304800</v>
       </c>
       <c r="F9" s="3">
-        <v>250700</v>
+        <v>259100</v>
       </c>
       <c r="G9" s="3">
-        <v>186900</v>
+        <v>193200</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -761,21 +796,21 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>148200</v>
+        <v>153200</v>
       </c>
       <c r="E10" s="3">
-        <v>136600</v>
+        <v>141200</v>
       </c>
       <c r="F10" s="3">
-        <v>122800</v>
+        <v>127000</v>
       </c>
       <c r="G10" s="3">
-        <v>92400</v>
+        <v>95500</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -788,7 +823,7 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -801,7 +836,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -828,7 +863,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -855,7 +890,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -882,21 +917,21 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>7900</v>
+        <v>8200</v>
       </c>
       <c r="E15" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="F15" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="G15" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -909,7 +944,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,21 +954,21 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>485700</v>
+        <v>501900</v>
       </c>
       <c r="E17" s="3">
-        <v>449600</v>
+        <v>464600</v>
       </c>
       <c r="F17" s="3">
-        <v>389400</v>
+        <v>402500</v>
       </c>
       <c r="G17" s="3">
-        <v>304700</v>
+        <v>314900</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -946,21 +981,21 @@
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-17000</v>
+        <v>-17600</v>
       </c>
       <c r="E18" s="3">
-        <v>-18000</v>
+        <v>-18600</v>
       </c>
       <c r="F18" s="3">
-        <v>-15900</v>
+        <v>-16400</v>
       </c>
       <c r="G18" s="3">
-        <v>-25400</v>
+        <v>-26200</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -973,7 +1008,7 @@
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,18 +1021,18 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9500</v>
+        <v>-9800</v>
       </c>
       <c r="E20" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="F20" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="G20" s="3">
         <v>1400</v>
@@ -1013,21 +1048,21 @@
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-18700</v>
+        <v>-19400</v>
       </c>
       <c r="E21" s="3">
-        <v>-13400</v>
+        <v>-14000</v>
       </c>
       <c r="F21" s="3">
-        <v>-5000</v>
+        <v>-5300</v>
       </c>
       <c r="G21" s="3">
-        <v>-19900</v>
+        <v>-20600</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1040,21 +1075,21 @@
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>15700</v>
+        <v>16300</v>
       </c>
       <c r="E22" s="3">
-        <v>16600</v>
+        <v>17200</v>
       </c>
       <c r="F22" s="3">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="G22" s="3">
-        <v>11700</v>
+        <v>12100</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1067,21 +1102,21 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-42300</v>
+        <v>-43700</v>
       </c>
       <c r="E23" s="3">
-        <v>-37700</v>
+        <v>-38900</v>
       </c>
       <c r="F23" s="3">
-        <v>-24700</v>
+        <v>-25500</v>
       </c>
       <c r="G23" s="3">
-        <v>-35800</v>
+        <v>-37000</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1094,7 +1129,7 @@
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1121,7 +1156,7 @@
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1148,21 +1183,21 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-42300</v>
+        <v>-43700</v>
       </c>
       <c r="E26" s="3">
-        <v>-37700</v>
+        <v>-38900</v>
       </c>
       <c r="F26" s="3">
-        <v>-24700</v>
+        <v>-25500</v>
       </c>
       <c r="G26" s="3">
-        <v>-35800</v>
+        <v>-37000</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1175,21 +1210,21 @@
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-42100</v>
+        <v>-43500</v>
       </c>
       <c r="E27" s="3">
-        <v>-37500</v>
+        <v>-38700</v>
       </c>
       <c r="F27" s="3">
-        <v>-24500</v>
+        <v>-25300</v>
       </c>
       <c r="G27" s="3">
-        <v>-35700</v>
+        <v>-36900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1202,7 +1237,7 @@
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1229,7 +1264,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1256,7 +1291,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1283,7 +1318,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1310,18 +1345,18 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="E32" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F32" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="G32" s="3">
         <v>-1400</v>
@@ -1337,21 +1372,21 @@
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-42100</v>
+        <v>-43500</v>
       </c>
       <c r="E33" s="3">
-        <v>-37500</v>
+        <v>-38700</v>
       </c>
       <c r="F33" s="3">
-        <v>-24500</v>
+        <v>-25300</v>
       </c>
       <c r="G33" s="3">
-        <v>-35700</v>
+        <v>-36900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1364,7 +1399,7 @@
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1391,21 +1426,21 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-42100</v>
+        <v>-43500</v>
       </c>
       <c r="E35" s="3">
-        <v>-37500</v>
+        <v>-38700</v>
       </c>
       <c r="F35" s="3">
-        <v>-24500</v>
+        <v>-25300</v>
       </c>
       <c r="G35" s="3">
-        <v>-35700</v>
+        <v>-36900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1418,12 +1453,12 @@
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1450,7 +1485,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,7 +1498,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,21 +1511,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>98200</v>
+        <v>101500</v>
       </c>
       <c r="E41" s="3">
-        <v>27600</v>
+        <v>28500</v>
       </c>
       <c r="F41" s="3">
-        <v>61800</v>
+        <v>63900</v>
       </c>
       <c r="G41" s="3">
-        <v>60100</v>
+        <v>62100</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1503,7 +1538,7 @@
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1530,21 +1565,21 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>47900</v>
+        <v>49500</v>
       </c>
       <c r="E43" s="3">
-        <v>69500</v>
+        <v>71900</v>
       </c>
       <c r="F43" s="3">
-        <v>83800</v>
+        <v>86600</v>
       </c>
       <c r="G43" s="3">
-        <v>75700</v>
+        <v>78200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1557,21 +1592,21 @@
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>113300</v>
+        <v>117100</v>
       </c>
       <c r="E44" s="3">
-        <v>87300</v>
+        <v>90200</v>
       </c>
       <c r="F44" s="3">
-        <v>73100</v>
+        <v>75600</v>
       </c>
       <c r="G44" s="3">
-        <v>44100</v>
+        <v>45600</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1584,21 +1619,21 @@
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16800</v>
+        <v>17400</v>
       </c>
       <c r="E45" s="3">
-        <v>20100</v>
+        <v>20800</v>
       </c>
       <c r="F45" s="3">
-        <v>14100</v>
+        <v>14500</v>
       </c>
       <c r="G45" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1611,21 +1646,21 @@
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>276300</v>
+        <v>285500</v>
       </c>
       <c r="E46" s="3">
-        <v>204600</v>
+        <v>211400</v>
       </c>
       <c r="F46" s="3">
-        <v>232800</v>
+        <v>240600</v>
       </c>
       <c r="G46" s="3">
-        <v>184400</v>
+        <v>190600</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1638,15 +1673,15 @@
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>17600</v>
+        <v>18100</v>
       </c>
       <c r="E47" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -1665,21 +1700,21 @@
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18100</v>
+        <v>18700</v>
       </c>
       <c r="E48" s="3">
-        <v>18400</v>
+        <v>19000</v>
       </c>
       <c r="F48" s="3">
-        <v>16800</v>
+        <v>17400</v>
       </c>
       <c r="G48" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1692,21 +1727,21 @@
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>28700</v>
+        <v>29700</v>
       </c>
       <c r="E49" s="3">
-        <v>21700</v>
+        <v>22500</v>
       </c>
       <c r="F49" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="G49" s="3">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1719,7 +1754,7 @@
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1746,7 +1781,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1773,21 +1808,21 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>30700</v>
+        <v>31800</v>
       </c>
       <c r="E52" s="3">
-        <v>23300</v>
+        <v>24100</v>
       </c>
       <c r="F52" s="3">
-        <v>13600</v>
+        <v>14100</v>
       </c>
       <c r="G52" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1800,7 +1835,7 @@
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1827,21 +1862,21 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>371400</v>
+        <v>383800</v>
       </c>
       <c r="E54" s="3">
-        <v>276300</v>
+        <v>285500</v>
       </c>
       <c r="F54" s="3">
-        <v>276300</v>
+        <v>285500</v>
       </c>
       <c r="G54" s="3">
-        <v>213800</v>
+        <v>221000</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1854,7 +1889,7 @@
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,7 +1902,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,21 +1915,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>90800</v>
+        <v>93800</v>
       </c>
       <c r="E57" s="3">
-        <v>83200</v>
+        <v>86000</v>
       </c>
       <c r="F57" s="3">
-        <v>63800</v>
+        <v>66000</v>
       </c>
       <c r="G57" s="3">
-        <v>36100</v>
+        <v>37300</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1907,21 +1942,21 @@
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26400</v>
+        <v>27300</v>
       </c>
       <c r="E58" s="3">
-        <v>18800</v>
+        <v>19500</v>
       </c>
       <c r="F58" s="3">
-        <v>25400</v>
+        <v>26300</v>
       </c>
       <c r="G58" s="3">
-        <v>32000</v>
+        <v>33100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -1934,21 +1969,21 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>80400</v>
+        <v>83000</v>
       </c>
       <c r="E59" s="3">
-        <v>50900</v>
+        <v>52600</v>
       </c>
       <c r="F59" s="3">
-        <v>40500</v>
+        <v>41900</v>
       </c>
       <c r="G59" s="3">
-        <v>25800</v>
+        <v>26600</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1961,21 +1996,21 @@
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>197600</v>
+        <v>204200</v>
       </c>
       <c r="E60" s="3">
-        <v>153000</v>
+        <v>158100</v>
       </c>
       <c r="F60" s="3">
-        <v>129800</v>
+        <v>134200</v>
       </c>
       <c r="G60" s="3">
-        <v>93900</v>
+        <v>97000</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1988,21 +2023,21 @@
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>44500</v>
+        <v>46000</v>
       </c>
       <c r="E61" s="3">
-        <v>77300</v>
+        <v>79800</v>
       </c>
       <c r="F61" s="3">
-        <v>57400</v>
+        <v>59300</v>
       </c>
       <c r="G61" s="3">
-        <v>51200</v>
+        <v>52900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2015,21 +2050,21 @@
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="E62" s="3">
-        <v>15300</v>
+        <v>15800</v>
       </c>
       <c r="F62" s="3">
-        <v>17300</v>
+        <v>17900</v>
       </c>
       <c r="G62" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2042,7 +2077,7 @@
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2069,7 +2104,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2096,7 +2131,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2123,21 +2158,21 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>251500</v>
+        <v>259900</v>
       </c>
       <c r="E66" s="3">
-        <v>245600</v>
+        <v>253800</v>
       </c>
       <c r="F66" s="3">
-        <v>204800</v>
+        <v>211600</v>
       </c>
       <c r="G66" s="3">
-        <v>153400</v>
+        <v>158600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2150,7 +2185,7 @@
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,7 +2198,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2190,7 +2225,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2217,7 +2252,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2244,7 +2279,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2271,21 +2306,21 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-210200</v>
+        <v>-217200</v>
       </c>
       <c r="E72" s="3">
-        <v>-168000</v>
+        <v>-173700</v>
       </c>
       <c r="F72" s="3">
-        <v>-130600</v>
+        <v>-134900</v>
       </c>
       <c r="G72" s="3">
-        <v>-106100</v>
+        <v>-109600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2298,7 +2333,7 @@
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2325,7 +2360,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2352,7 +2387,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2379,21 +2414,21 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>119900</v>
+        <v>123900</v>
       </c>
       <c r="E76" s="3">
-        <v>30700</v>
+        <v>31700</v>
       </c>
       <c r="F76" s="3">
-        <v>71500</v>
+        <v>73900</v>
       </c>
       <c r="G76" s="3">
-        <v>60400</v>
+        <v>62400</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2406,7 +2441,7 @@
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2433,12 +2468,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2465,21 +2500,21 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-42100</v>
+        <v>-43500</v>
       </c>
       <c r="E81" s="3">
-        <v>-37500</v>
+        <v>-38700</v>
       </c>
       <c r="F81" s="3">
-        <v>-24500</v>
+        <v>-25300</v>
       </c>
       <c r="G81" s="3">
-        <v>-35700</v>
+        <v>-36900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2492,7 +2527,7 @@
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,21 +2540,21 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7900</v>
+        <v>8200</v>
       </c>
       <c r="E83" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="F83" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="G83" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2532,7 +2567,7 @@
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2559,7 +2594,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2586,7 +2621,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2613,7 +2648,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2640,7 +2675,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2667,21 +2702,21 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="E89" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="F89" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="G89" s="3">
-        <v>-6800</v>
+        <v>-7000</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2694,7 +2729,7 @@
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,21 +2742,21 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14200</v>
+        <v>-2000</v>
       </c>
       <c r="E91" s="3">
-        <v>-17900</v>
+        <v>-6500</v>
       </c>
       <c r="F91" s="3">
-        <v>-11500</v>
+        <v>-5600</v>
       </c>
       <c r="G91" s="3">
-        <v>-5400</v>
+        <v>-1400</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2734,7 +2769,7 @@
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2761,7 +2796,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2788,18 +2823,18 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12200</v>
+        <v>-12600</v>
       </c>
       <c r="E94" s="3">
-        <v>-16000</v>
+        <v>-16600</v>
       </c>
       <c r="F94" s="3">
-        <v>-7900</v>
+        <v>-8200</v>
       </c>
       <c r="G94" s="3">
         <v>-1000</v>
@@ -2815,7 +2850,7 @@
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,7 +2863,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2855,7 +2890,7 @@
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2882,7 +2917,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2909,7 +2944,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2936,21 +2971,21 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>74900</v>
+        <v>77400</v>
       </c>
       <c r="E100" s="3">
-        <v>-11700</v>
+        <v>-12100</v>
       </c>
       <c r="F100" s="3">
-        <v>14700</v>
+        <v>15200</v>
       </c>
       <c r="G100" s="3">
-        <v>39100</v>
+        <v>40400</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2963,7 +2998,7 @@
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2990,21 +3025,21 @@
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>70600</v>
+        <v>73000</v>
       </c>
       <c r="E102" s="3">
-        <v>-34200</v>
+        <v>-35300</v>
       </c>
       <c r="F102" s="3">
         <v>1700</v>
       </c>
       <c r="G102" s="3">
-        <v>31800</v>
+        <v>32900</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
